--- a/data/refunds.xlsx
+++ b/data/refunds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\github\refundBot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A741661-64D9-48CA-9076-5E69806BCA44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F7905E-A87A-4EEE-BCDC-96E4F11D2702}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="630" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,17 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>YourTicketNumber</t>
   </si>
   <si>
-    <t>AgentID</t>
-  </si>
-  <si>
-    <t>FareType</t>
-  </si>
-  <si>
     <t>Payment_Type</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t>Destination</t>
   </si>
   <si>
-    <t>DeptDate</t>
-  </si>
-  <si>
     <t>Status Code</t>
   </si>
   <si>
@@ -73,55 +64,103 @@
     <t>E3A98987</t>
   </si>
   <si>
-    <t xml:space="preserve">PT434   </t>
-  </si>
-  <si>
-    <t>RTN</t>
-  </si>
-  <si>
     <t xml:space="preserve">Card                </t>
   </si>
   <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ticket refunded</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>E3A98988</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Refund error</t>
+  </si>
+  <si>
+    <t>2021-12-29 09:25:34</t>
+  </si>
+  <si>
     <t>E3B00190</t>
   </si>
   <si>
+    <t>2021-12-29 09:25:44</t>
+  </si>
+  <si>
     <t>E3B00195</t>
   </si>
   <si>
+    <t>2021-12-29 09:25:55</t>
+  </si>
+  <si>
     <t>E3B00293</t>
   </si>
   <si>
     <t xml:space="preserve">Cash               </t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invalid payment type</t>
+  </si>
+  <si>
+    <t>2021-12-29 09:26:06</t>
+  </si>
+  <si>
     <t>E3B00362</t>
   </si>
   <si>
-    <t>SGL</t>
+    <t>03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invalid amount</t>
+  </si>
+  <si>
+    <t>2021-12-29 09:26:16</t>
   </si>
   <si>
     <t>X123456</t>
   </si>
   <si>
-    <t xml:space="preserve">FE085    </t>
+    <t>01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InvalidTicketNumber</t>
+  </si>
+  <si>
+    <t>2021-12-29 09:26:27</t>
   </si>
   <si>
     <t>P3B48847</t>
   </si>
   <si>
+    <t>2021-12-29 09:26:39</t>
+  </si>
+  <si>
     <t>P3B48848</t>
   </si>
   <si>
+    <t>2021-12-29 09:26:49</t>
+  </si>
+  <si>
+    <t>2021-12-29 09:27:00</t>
+  </si>
+  <si>
     <t>00- Success</t>
   </si>
   <si>
     <t>01 - Invalid Ticket</t>
   </si>
   <si>
-    <t>Invalid Payment Type</t>
+    <t>02 - Invalid Payment Type</t>
   </si>
   <si>
     <t>03 - Invalid Amount</t>
@@ -131,6 +170,120 @@
   </si>
   <si>
     <t>99 - Bot Error</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>CustomerAddress</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>John Higgins</t>
+  </si>
+  <si>
+    <t>Neil Hardy</t>
+  </si>
+  <si>
+    <t>Jim Davies</t>
+  </si>
+  <si>
+    <t>Sidney Barrett</t>
+  </si>
+  <si>
+    <t>Kate Crumble</t>
+  </si>
+  <si>
+    <t>Judy Bench</t>
+  </si>
+  <si>
+    <t>Jed Grissom</t>
+  </si>
+  <si>
+    <t>Tom Cotton</t>
+  </si>
+  <si>
+    <t>44 Benchmark Place, Reading, RG30 3HT</t>
+  </si>
+  <si>
+    <t>23 Acacia Av, Bath, BA13 3HS</t>
+  </si>
+  <si>
+    <t>12 Conucopia Way, Bristol BR1 6GH</t>
+  </si>
+  <si>
+    <t>68 Freemason Drive, London, SW12 7EW</t>
+  </si>
+  <si>
+    <t>12 Chalkpit Close, Southampton, SO2 6HP</t>
+  </si>
+  <si>
+    <t>92 Greenacre Avenue, Newcastle, NE2 5TH</t>
+  </si>
+  <si>
+    <t>23 Keep Drive, Aberdeen, AB45 7GB</t>
+  </si>
+  <si>
+    <t>15 Agent Street, Hounslow, HS34 34Y</t>
+  </si>
+  <si>
+    <t>28 Beekeeper Road, Taunton, TA2 6HP</t>
+  </si>
+  <si>
+    <t>Mary Quantum</t>
+  </si>
+  <si>
+    <t>Covid</t>
+  </si>
+  <si>
+    <t>Bognor</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Newbury</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>G8793984</t>
+  </si>
+  <si>
+    <t>Tim Trubshaw</t>
+  </si>
+  <si>
+    <t>41 Newdenture Av, Blackpool, BA34  34Y</t>
+  </si>
+  <si>
+    <t>Change of plan</t>
+  </si>
+  <si>
+    <t>Sprained Ankle</t>
+  </si>
+  <si>
+    <t>Flying instead</t>
   </si>
 </sst>
 </file>
@@ -140,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,6 +440,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -633,7 +792,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -658,6 +817,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="20" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -994,7 +1158,7 @@
                   <c:v>01 - Invalid Ticket</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Invalid Payment Type</c:v>
+                  <c:v>02 - Invalid Payment Type</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>03 - Invalid Amount</c:v>
@@ -1015,19 +1179,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2031,20 +2195,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05048FD4-FE6B-4DFE-B6DC-9425F4DD8CDF}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:L10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="15" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.125" style="2" bestFit="1" customWidth="1"/>
@@ -2057,271 +2222,417 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" s="15">
         <v>4</v>
       </c>
       <c r="F2" s="11">
-        <v>44034.549434988403</v>
-      </c>
-      <c r="G2" s="1">
-        <v>33023</v>
-      </c>
-      <c r="H2" s="13">
-        <v>44295</v>
+        <v>44399.549432870372</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="18">
+        <v>44559.392627314817</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" s="15">
         <v>4</v>
       </c>
       <c r="F3" s="11">
-        <v>44034.555427048603</v>
-      </c>
-      <c r="G3" s="1">
-        <v>57366</v>
-      </c>
-      <c r="H3" s="13">
-        <v>44295</v>
+        <v>44399.555428240739</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" s="15">
         <v>17.600000000000001</v>
       </c>
       <c r="F4" s="11">
-        <v>44130.444795335701</v>
-      </c>
-      <c r="G4" s="1">
-        <v>33023</v>
-      </c>
-      <c r="H4" s="13">
-        <v>44244</v>
+        <v>44495.444791666669</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" s="15">
         <v>9.1999999999999993</v>
       </c>
       <c r="F5" s="11">
-        <v>44130.562278506899</v>
-      </c>
-      <c r="G5" s="1">
-        <v>33023</v>
-      </c>
-      <c r="H5" s="13">
-        <v>44244</v>
+        <v>44495.562280092592</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="15">
         <v>57.7</v>
       </c>
       <c r="F6" s="11">
-        <v>44152.329589039298</v>
-      </c>
-      <c r="G6" s="1">
-        <v>57366</v>
-      </c>
-      <c r="H6" s="13">
-        <v>44255</v>
+        <v>44517.329583333332</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>44525.528923611113</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="15">
-        <v>6756567</v>
-      </c>
-      <c r="F7" s="11">
-        <v>44160.528927893502</v>
-      </c>
-      <c r="G7" s="1">
-        <v>76122</v>
-      </c>
-      <c r="H7" s="13">
-        <v>44246</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8" s="15">
         <v>30.3</v>
       </c>
       <c r="F8" s="11">
-        <v>44179.481161770796</v>
-      </c>
-      <c r="G8" s="1">
-        <v>33023</v>
-      </c>
-      <c r="H8" s="13">
-        <v>44245</v>
+        <v>44544.481157407405</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9" s="15">
         <v>19.5</v>
       </c>
       <c r="F9" s="11">
-        <v>44201.391748958296</v>
-      </c>
-      <c r="G9" s="1">
-        <v>33343</v>
-      </c>
-      <c r="H9" s="13">
-        <v>44243</v>
+        <v>44566.391747685186</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10" s="15">
         <v>18.3</v>
       </c>
       <c r="F10" s="11">
-        <v>44201.3918086458</v>
-      </c>
-      <c r="G10" s="1">
-        <v>33343</v>
-      </c>
-      <c r="H10" s="13">
-        <v>44243</v>
+        <v>44566.391805555555</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="15">
+        <v>23.56</v>
+      </c>
+      <c r="F11" s="11">
+        <v>44625.391805555555</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2335,58 +2646,58 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f>COUNTIFS(Tickets!I1:I990, "00")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTIFS(Tickets!I1:I990, "01")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIFS(Tickets!I1:I990, "02")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4">
         <f>COUNTIFS(Tickets!I1:I990, "03")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
         <f>COUNTIFS(Tickets!I1:J990, "98")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
         <f>COUNTIFS(Tickets!I1:K990, "99")</f>

--- a/data/refunds.xlsx
+++ b/data/refunds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\github\refundBot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F7905E-A87A-4EEE-BCDC-96E4F11D2702}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28230ABF-96DC-4AFD-A80A-F603C8149772}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="630" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tickets" sheetId="3" r:id="rId1"/>
     <sheet name="Processing Status" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,23 +32,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>YourTicketNumber</t>
   </si>
   <si>
-    <t>Payment_Type</t>
-  </si>
-  <si>
-    <t>Payment_Total</t>
-  </si>
-  <si>
-    <t>Sale_Date</t>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Customer Address</t>
+  </si>
+  <si>
+    <t>Payment Type</t>
+  </si>
+  <si>
+    <t>Payment Value</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
   </si>
   <si>
     <t>Destination</t>
   </si>
   <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Status Code</t>
   </si>
   <si>
@@ -64,94 +76,193 @@
     <t>E3A98987</t>
   </si>
   <si>
+    <t>John Higgins</t>
+  </si>
+  <si>
+    <t>44 Benchmark Place, Reading, RG30 3HT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Card                </t>
   </si>
   <si>
+    <t>Bognor</t>
+  </si>
+  <si>
+    <t>Covid</t>
+  </si>
+  <si>
+    <t>john.h.higgins56@hotmail.com</t>
+  </si>
+  <si>
     <t>00</t>
   </si>
   <si>
     <t xml:space="preserve"> Ticket refunded</t>
   </si>
   <si>
+    <t>2021-12-29 17:20:46</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>E3A98988</t>
   </si>
   <si>
+    <t>Mary Quantum</t>
+  </si>
+  <si>
+    <t>23 Acacia Av, Bath, BA13 3HS</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>mary.quantum34@gmail.com</t>
+  </si>
+  <si>
+    <t>2021-12-29 17:24:40</t>
+  </si>
+  <si>
+    <t>E3B00190</t>
+  </si>
+  <si>
+    <t>Jed Grissom</t>
+  </si>
+  <si>
+    <t>12 Conucopia Way, Bristol BR1 6GH</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Jederby.Grissom55@btinternet.com</t>
+  </si>
+  <si>
     <t>98</t>
   </si>
   <si>
     <t xml:space="preserve"> Refund error</t>
   </si>
   <si>
-    <t>2021-12-29 09:25:34</t>
-  </si>
-  <si>
-    <t>E3B00190</t>
-  </si>
-  <si>
-    <t>2021-12-29 09:25:44</t>
+    <t>2021-12-29 17:31:29</t>
   </si>
   <si>
     <t>E3B00195</t>
   </si>
   <si>
-    <t>2021-12-29 09:25:55</t>
+    <t>Neil Hardy</t>
+  </si>
+  <si>
+    <t>68 Freemason Drive, London, SW12 7EW</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Sprained Ankle</t>
+  </si>
+  <si>
+    <t>Neli.hardy@gmail.com</t>
   </si>
   <si>
     <t>E3B00293</t>
   </si>
   <si>
+    <t>Jim Davies</t>
+  </si>
+  <si>
+    <t>12 Chalkpit Close, Southampton, SO2 6HP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cash               </t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Invalid payment type</t>
-  </si>
-  <si>
-    <t>2021-12-29 09:26:06</t>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Jimbo.Davies45@hotmail.com</t>
   </si>
   <si>
     <t>E3B00362</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Invalid amount</t>
-  </si>
-  <si>
-    <t>2021-12-29 09:26:16</t>
+    <t>Tom Cotton</t>
+  </si>
+  <si>
+    <t>92 Greenacre Avenue, Newcastle, NE2 5TH</t>
+  </si>
+  <si>
+    <t>Newbury</t>
+  </si>
+  <si>
+    <t>Tommy567567@gmail.com</t>
   </si>
   <si>
     <t>X123456</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> InvalidTicketNumber</t>
-  </si>
-  <si>
-    <t>2021-12-29 09:26:27</t>
+    <t>Sidney Barrett</t>
+  </si>
+  <si>
+    <t>23 Keep Drive, Aberdeen, AB45 7GB</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Sid.Barret45@hotmail.com</t>
   </si>
   <si>
     <t>P3B48847</t>
   </si>
   <si>
-    <t>2021-12-29 09:26:39</t>
+    <t>Kate Crumble</t>
+  </si>
+  <si>
+    <t>28 Beekeeper Road, Taunton, TA2 6HP</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>KateyCrumble@talk21.com</t>
   </si>
   <si>
     <t>P3B48848</t>
   </si>
   <si>
-    <t>2021-12-29 09:26:49</t>
-  </si>
-  <si>
-    <t>2021-12-29 09:27:00</t>
+    <t>Judy Bench</t>
+  </si>
+  <si>
+    <t>15 Agent Street, Hounslow, HS34 34Y</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Flying instead</t>
+  </si>
+  <si>
+    <t>Judy.Bench@gmail.com</t>
+  </si>
+  <si>
+    <t>G8793984</t>
+  </si>
+  <si>
+    <t>Tim Trubshaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 Newdenture Av, Blackpool, BA34  34Y</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Change of plan</t>
+  </si>
+  <si>
+    <t>TimothyTrubshaw77@hotmail.com</t>
   </si>
   <si>
     <t>00- Success</t>
@@ -170,120 +281,6 @@
   </si>
   <si>
     <t>99 - Bot Error</t>
-  </si>
-  <si>
-    <t>CustomerName</t>
-  </si>
-  <si>
-    <t>CustomerAddress</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>John Higgins</t>
-  </si>
-  <si>
-    <t>Neil Hardy</t>
-  </si>
-  <si>
-    <t>Jim Davies</t>
-  </si>
-  <si>
-    <t>Sidney Barrett</t>
-  </si>
-  <si>
-    <t>Kate Crumble</t>
-  </si>
-  <si>
-    <t>Judy Bench</t>
-  </si>
-  <si>
-    <t>Jed Grissom</t>
-  </si>
-  <si>
-    <t>Tom Cotton</t>
-  </si>
-  <si>
-    <t>44 Benchmark Place, Reading, RG30 3HT</t>
-  </si>
-  <si>
-    <t>23 Acacia Av, Bath, BA13 3HS</t>
-  </si>
-  <si>
-    <t>12 Conucopia Way, Bristol BR1 6GH</t>
-  </si>
-  <si>
-    <t>68 Freemason Drive, London, SW12 7EW</t>
-  </si>
-  <si>
-    <t>12 Chalkpit Close, Southampton, SO2 6HP</t>
-  </si>
-  <si>
-    <t>92 Greenacre Avenue, Newcastle, NE2 5TH</t>
-  </si>
-  <si>
-    <t>23 Keep Drive, Aberdeen, AB45 7GB</t>
-  </si>
-  <si>
-    <t>15 Agent Street, Hounslow, HS34 34Y</t>
-  </si>
-  <si>
-    <t>28 Beekeeper Road, Taunton, TA2 6HP</t>
-  </si>
-  <si>
-    <t>Mary Quantum</t>
-  </si>
-  <si>
-    <t>Covid</t>
-  </si>
-  <si>
-    <t>Bognor</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Newbury</t>
-  </si>
-  <si>
-    <t>Doncaster</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>G8793984</t>
-  </si>
-  <si>
-    <t>Tim Trubshaw</t>
-  </si>
-  <si>
-    <t>41 Newdenture Av, Blackpool, BA34  34Y</t>
-  </si>
-  <si>
-    <t>Change of plan</t>
-  </si>
-  <si>
-    <t>Sprained Ankle</t>
-  </si>
-  <si>
-    <t>Flying instead</t>
   </si>
 </sst>
 </file>
@@ -293,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -450,6 +447,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -748,7 +753,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
@@ -783,6 +788,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0"/>
@@ -792,38 +798,79 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="60">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="3"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="5"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="6"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="7"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="8"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="9"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="10"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="11"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="12"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="13"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="14"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="15"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="16"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="17"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="18"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="19"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="20"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="21"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="22"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="23"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="24"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="25"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="26"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="7" applyFill="1" borderId="7" applyBorder="1" xfId="27"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="28"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="29"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="30"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="31"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="32"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="33"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="34"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="5" applyFill="1" borderId="4" applyBorder="1" xfId="35"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="36"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="37"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="8" applyFill="1" borderId="8" applyBorder="1" xfId="38"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="6" applyFill="1" borderId="5" applyBorder="1" xfId="39"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="40"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="41"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="42"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="29"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="37"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="37">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="37">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="18" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="29"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="29"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="18" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="29"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="29"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="29">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="29">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="37">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="20" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="37"/>
+    <xf numFmtId="22" applyNumberFormat="1" fontId="20" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="37"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="34"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -857,15 +904,16 @@
     <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="34" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8"/>
+    <cellStyle name="Input" xfId="35" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="39" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="38" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="39" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="40" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1179,19 +1227,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2195,449 +2243,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05048FD4-FE6B-4DFE-B6DC-9425F4DD8CDF}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="9" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="17.25" customWidth="1" style="29"/>
+    <col min="2" max="2" bestFit="1" width="14.875" customWidth="1" style="29"/>
+    <col min="3" max="3" bestFit="1" width="37.625" customWidth="1" style="29"/>
+    <col min="4" max="4" bestFit="1" width="14.625" customWidth="1" style="29"/>
+    <col min="5" max="5" bestFit="1" width="16.375" customWidth="1" style="55"/>
+    <col min="6" max="6" bestFit="1" width="15.5" customWidth="1" style="51"/>
+    <col min="7" max="7" bestFit="1" width="10.875" customWidth="1" style="29"/>
+    <col min="8" max="8" bestFit="1" width="15.5" customWidth="1" style="53"/>
+    <col min="9" max="9" bestFit="1" width="32.5" customWidth="1" style="53"/>
+    <col min="10" max="10" bestFit="1" width="11" customWidth="1" style="49"/>
+    <col min="11" max="11" bestFit="1" width="39.125" customWidth="1" style="37"/>
+    <col min="12" max="12" bestFit="1" width="17.875" customWidth="1" style="37"/>
+    <col min="13" max="13" width="9" customWidth="1" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="45" customFormat="1">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="55">
+        <v>4</v>
+      </c>
+      <c r="F2" s="51">
+        <v>44399.549432870372</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="55">
+        <v>4</v>
+      </c>
+      <c r="F3" s="51">
+        <v>44399.555428240739</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="55">
+        <v>17.6</v>
+      </c>
+      <c r="F4" s="51">
+        <v>44495.444791666669</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="55">
+        <v>9.2</v>
+      </c>
+      <c r="F5" s="51">
+        <v>44495.562280092592</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="56"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D6" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="E6" s="55">
+        <v>57.7</v>
+      </c>
+      <c r="F6" s="51">
+        <v>44517.329583333332</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="H6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="7">
+      <c r="A7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="55">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="51">
+        <v>44525.528923611113</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="56"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="15">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11">
-        <v>44399.549432870372</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="55">
+        <v>30.3</v>
+      </c>
+      <c r="F8" s="51">
+        <v>44544.481157407405</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="56"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="55">
+        <v>19.5</v>
+      </c>
+      <c r="F9" s="51">
+        <v>44566.391747685186</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="56"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="55">
+        <v>18.3</v>
+      </c>
+      <c r="F10" s="51">
+        <v>44566.391805555555</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="18">
-        <v>44559.392627314817</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>13</v>
-      </c>
+      <c r="H10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="56"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="15">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11">
-        <v>44399.555428240739</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="17" t="s">
+    <row r="11">
+      <c r="A11" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="15">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F4" s="11">
-        <v>44495.444791666669</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="15">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F5" s="11">
-        <v>44495.562280092592</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="15">
-        <v>57.7</v>
-      </c>
-      <c r="F6" s="11">
-        <v>44517.329583333332</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1000000</v>
-      </c>
-      <c r="F7" s="11">
-        <v>44525.528923611113</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="15">
-        <v>30.3</v>
-      </c>
-      <c r="F8" s="11">
-        <v>44544.481157407405</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="E11" s="55">
+        <v>23.56</v>
+      </c>
+      <c r="F11" s="51">
+        <v>44625.391805555555</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="15">
-        <v>19.5</v>
-      </c>
-      <c r="F9" s="11">
-        <v>44566.391747685186</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H11" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="15">
-        <v>18.3</v>
-      </c>
-      <c r="F10" s="11">
-        <v>44566.391805555555</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="I11" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="15">
-        <v>23.56</v>
-      </c>
-      <c r="F11" s="11">
-        <v>44625.391805555555</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>13</v>
-      </c>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="56"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId109"/>
+    <hyperlink ref="I3" r:id="rId110"/>
+    <hyperlink ref="I4" r:id="rId111"/>
+    <hyperlink ref="I5" r:id="rId112"/>
+    <hyperlink ref="I6" r:id="rId113"/>
+    <hyperlink ref="I7" r:id="rId114"/>
+    <hyperlink ref="I8" r:id="rId115"/>
+    <hyperlink ref="I9" r:id="rId116"/>
+    <hyperlink ref="I10" r:id="rId117"/>
+    <hyperlink ref="I11" r:id="rId118"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2651,61 +2690,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="15.375" customWidth="1" style="43"/>
+    <col min="3" max="3" bestFit="1" width="22.125" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="16.75" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="18.875" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>45</v>
+    <row r="1">
+      <c r="A1" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <f>COUNTIFS(Tickets!I1:I990, "00")</f>
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <f>COUNTIFS(Tickets!I1:I990, "01")</f>
+    <row r="2">
+      <c r="A2" s="44">
+        <f>COUNTIFS(Tickets!J1:J990, "00")</f>
         <v>2</v>
       </c>
-      <c r="C2" s="4">
-        <f>COUNTIFS(Tickets!I1:I990, "02")</f>
+      <c r="B2" s="44">
+        <f>COUNTIFS(Tickets!J1:J990, "01")</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="44">
+        <f>COUNTIFS(Tickets!J1:J990, "02")</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="44">
+        <f>COUNTIFS(Tickets!J1:J990, "03")</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="44">
+        <f>COUNTIFS(Tickets!J1:K990, "98")</f>
         <v>1</v>
       </c>
-      <c r="D2" s="4">
-        <f>COUNTIFS(Tickets!I1:I990, "03")</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <f>COUNTIFS(Tickets!I1:J990, "98")</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <f>COUNTIFS(Tickets!I1:K990, "99")</f>
+      <c r="F2" s="44">
+        <f>COUNTIFS(Tickets!J1:L990, "99")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/refunds.xlsx
+++ b/data/refunds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\github\refundBot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28230ABF-96DC-4AFD-A80A-F603C8149772}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A9C2F5-6A2B-412E-B52B-A77E3071ACC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="630" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="6165" windowWidth="23655" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tickets" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>YourTicketNumber</t>
   </si>
@@ -94,78 +94,93 @@
     <t>john.h.higgins56@hotmail.com</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Refund error</t>
+  </si>
+  <si>
+    <t>2022-01-11 19:00:15</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>E3A98988</t>
+  </si>
+  <si>
+    <t>Mary Quantum</t>
+  </si>
+  <si>
+    <t>23 Acacia Av, Bath, BA13 3HS</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Lost ticket</t>
+  </si>
+  <si>
+    <t>mary.quantum34@gmail.com</t>
+  </si>
+  <si>
     <t>00</t>
   </si>
   <si>
     <t xml:space="preserve"> Ticket refunded</t>
   </si>
   <si>
-    <t>2021-12-29 17:20:46</t>
+    <t>2022-01-11 18:53:06</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>E3B00190</t>
+  </si>
+  <si>
+    <t>Jed Grissom</t>
+  </si>
+  <si>
+    <t>12 Conucopia Way, Bristol BR1 6GH</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Jederby.Grissom55@btinternet.com</t>
+  </si>
+  <si>
+    <t>2022-01-11 19:00:25</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>E3B00195</t>
+  </si>
+  <si>
+    <t>Neil Hardy</t>
+  </si>
+  <si>
+    <t>68 Freemason Drive, London, SW12 7EW</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Sprained Ankle</t>
+  </si>
+  <si>
+    <t>Neli.hardy@gmail.com</t>
+  </si>
+  <si>
+    <t>2021-12-29 17:56:40</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>E3A98988</t>
-  </si>
-  <si>
-    <t>Mary Quantum</t>
-  </si>
-  <si>
-    <t>23 Acacia Av, Bath, BA13 3HS</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>mary.quantum34@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-12-29 17:24:40</t>
-  </si>
-  <si>
-    <t>E3B00190</t>
-  </si>
-  <si>
-    <t>Jed Grissom</t>
-  </si>
-  <si>
-    <t>12 Conucopia Way, Bristol BR1 6GH</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Jederby.Grissom55@btinternet.com</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Refund error</t>
-  </si>
-  <si>
-    <t>2021-12-29 17:31:29</t>
-  </si>
-  <si>
-    <t>E3B00195</t>
-  </si>
-  <si>
-    <t>Neil Hardy</t>
-  </si>
-  <si>
-    <t>68 Freemason Drive, London, SW12 7EW</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>Sprained Ankle</t>
-  </si>
-  <si>
-    <t>Neli.hardy@gmail.com</t>
-  </si>
-  <si>
     <t>E3B00293</t>
   </si>
   <si>
@@ -184,6 +199,15 @@
     <t>Jimbo.Davies45@hotmail.com</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invalid payment type</t>
+  </si>
+  <si>
+    <t>2021-12-29 17:56:53</t>
+  </si>
+  <si>
     <t>E3B00362</t>
   </si>
   <si>
@@ -196,9 +220,21 @@
     <t>Newbury</t>
   </si>
   <si>
+    <t>Gastroenteritis</t>
+  </si>
+  <si>
     <t>Tommy567567@gmail.com</t>
   </si>
   <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invalid amount</t>
+  </si>
+  <si>
+    <t>2021-12-29 17:57:06</t>
+  </si>
+  <si>
     <t>X123456</t>
   </si>
   <si>
@@ -214,6 +250,15 @@
     <t>Sid.Barret45@hotmail.com</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InvalidTicketNumber</t>
+  </si>
+  <si>
+    <t>2021-12-29 17:57:19</t>
+  </si>
+  <si>
     <t>P3B48847</t>
   </si>
   <si>
@@ -226,9 +271,18 @@
     <t>Bournemouth</t>
   </si>
   <si>
+    <t>Flu</t>
+  </si>
+  <si>
     <t>KateyCrumble@talk21.com</t>
   </si>
   <si>
+    <t>2021-12-29 18:05:57</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>P3B48848</t>
   </si>
   <si>
@@ -241,12 +295,15 @@
     <t>Aberdeen</t>
   </si>
   <si>
-    <t>Flying instead</t>
+    <t>Found it cheaper elsewhere</t>
   </si>
   <si>
     <t>Judy.Bench@gmail.com</t>
   </si>
   <si>
+    <t>2021-12-29 18:12:00</t>
+  </si>
+  <si>
     <t>G8793984</t>
   </si>
   <si>
@@ -263,6 +320,12 @@
   </si>
   <si>
     <t>TimothyTrubshaw77@hotmail.com</t>
+  </si>
+  <si>
+    <t>2022-01-11 18:31:24</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>00- Success</t>
@@ -1227,22 +1290,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2245,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05048FD4-FE6B-4DFE-B6DC-9425F4DD8CDF}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2371,33 +2434,33 @@
         <v>27</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="56" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K3" s="57" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L3" s="57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>16</v>
@@ -2409,36 +2472,36 @@
         <v>44495.444791666669</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J4" s="56" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K4" s="57" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L4" s="57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M4" s="56" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>16</v>
@@ -2450,31 +2513,39 @@
         <v>44495.562280092592</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="56"/>
+        <v>46</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="29" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" s="55">
         <v>57.7</v>
@@ -2483,28 +2554,36 @@
         <v>44517.329583333332</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="56"/>
+        <v>54</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="29" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>16</v>
@@ -2516,28 +2595,36 @@
         <v>44525.528923611113</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I7" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="56"/>
+        <v>63</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="56" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>16</v>
@@ -2549,28 +2636,36 @@
         <v>44544.481157407405</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H8" s="53" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="56"/>
+        <v>71</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="56" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="29" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>16</v>
@@ -2582,28 +2677,36 @@
         <v>44566.391747685186</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I9" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="56"/>
+        <v>80</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="56" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="29" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>16</v>
@@ -2615,28 +2718,36 @@
         <v>44566.391805555555</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="I10" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="56"/>
+        <v>88</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>16</v>
@@ -2648,31 +2759,39 @@
         <v>44625.391805555555</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="I11" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="56"/>
+        <v>95</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId109"/>
-    <hyperlink ref="I3" r:id="rId110"/>
-    <hyperlink ref="I4" r:id="rId111"/>
-    <hyperlink ref="I5" r:id="rId112"/>
-    <hyperlink ref="I6" r:id="rId113"/>
-    <hyperlink ref="I7" r:id="rId114"/>
-    <hyperlink ref="I8" r:id="rId115"/>
-    <hyperlink ref="I9" r:id="rId116"/>
-    <hyperlink ref="I10" r:id="rId117"/>
-    <hyperlink ref="I11" r:id="rId118"/>
+    <hyperlink ref="I2" r:id="rId73"/>
+    <hyperlink ref="I3" r:id="rId74"/>
+    <hyperlink ref="I4" r:id="rId75"/>
+    <hyperlink ref="I5" r:id="rId76"/>
+    <hyperlink ref="I6" r:id="rId77"/>
+    <hyperlink ref="I7" r:id="rId78"/>
+    <hyperlink ref="I8" r:id="rId79"/>
+    <hyperlink ref="I9" r:id="rId80"/>
+    <hyperlink ref="I10" r:id="rId81"/>
+    <hyperlink ref="I11" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2700,40 +2819,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="44">
         <f>COUNTIFS(Tickets!J1:J990, "00")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="44">
         <f>COUNTIFS(Tickets!J1:J990, "01")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="44">
         <f>COUNTIFS(Tickets!J1:J990, "02")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="44">
         <f>COUNTIFS(Tickets!J1:J990, "03")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="44">
         <f>COUNTIFS(Tickets!J1:K990, "98")</f>

--- a/data/refunds.xlsx
+++ b/data/refunds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\github\refundBot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A9C2F5-6A2B-412E-B52B-A77E3071ACC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77574B9E-7EED-46C2-9C91-B19A5EFC8EA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="6165" windowWidth="23655" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tickets" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>YourTicketNumber</t>
   </si>
@@ -94,16 +94,16 @@
     <t>john.h.higgins56@hotmail.com</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Refund error</t>
-  </si>
-  <si>
-    <t>2022-01-11 19:00:15</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ticket refunded</t>
+  </si>
+  <si>
+    <t>2022-01-21 14:14:22</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>E3A98988</t>
@@ -124,16 +124,10 @@
     <t>mary.quantum34@gmail.com</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ticket refunded</t>
-  </si>
-  <si>
-    <t>2022-01-11 18:53:06</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>2022-01-21 14:19:25</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>E3B00190</t>
@@ -151,10 +145,7 @@
     <t>Jederby.Grissom55@btinternet.com</t>
   </si>
   <si>
-    <t>2022-01-11 19:00:25</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>2022-01-21 14:14:40</t>
   </si>
   <si>
     <t>E3B00195</t>
@@ -175,10 +166,7 @@
     <t>Neli.hardy@gmail.com</t>
   </si>
   <si>
-    <t>2021-12-29 17:56:40</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>2022-01-21 14:14:49</t>
   </si>
   <si>
     <t>E3B00293</t>
@@ -205,7 +193,7 @@
     <t xml:space="preserve"> Invalid payment type</t>
   </si>
   <si>
-    <t>2021-12-29 17:56:53</t>
+    <t>2022-01-21 14:14:58</t>
   </si>
   <si>
     <t>E3B00362</t>
@@ -232,7 +220,7 @@
     <t xml:space="preserve"> Invalid amount</t>
   </si>
   <si>
-    <t>2021-12-29 17:57:06</t>
+    <t>2022-01-21 14:15:07</t>
   </si>
   <si>
     <t>X123456</t>
@@ -256,7 +244,7 @@
     <t xml:space="preserve"> InvalidTicketNumber</t>
   </si>
   <si>
-    <t>2021-12-29 17:57:19</t>
+    <t>2022-01-21 14:15:16</t>
   </si>
   <si>
     <t>P3B48847</t>
@@ -277,10 +265,7 @@
     <t>KateyCrumble@talk21.com</t>
   </si>
   <si>
-    <t>2021-12-29 18:05:57</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>2022-01-21 14:19:35</t>
   </si>
   <si>
     <t>P3B48848</t>
@@ -301,7 +286,7 @@
     <t>Judy.Bench@gmail.com</t>
   </si>
   <si>
-    <t>2021-12-29 18:12:00</t>
+    <t>2022-01-21 14:15:35</t>
   </si>
   <si>
     <t>G8793984</t>
@@ -322,10 +307,7 @@
     <t>TimothyTrubshaw77@hotmail.com</t>
   </si>
   <si>
-    <t>2022-01-11 18:31:24</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>2022-01-21 14:19:44</t>
   </si>
   <si>
     <t>00- Success</t>
@@ -1290,22 +1272,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,7 +2291,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J2" sqref="J2:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2324,8 +2306,8 @@
     <col min="8" max="8" bestFit="1" width="15.5" customWidth="1" style="53"/>
     <col min="9" max="9" bestFit="1" width="32.5" customWidth="1" style="53"/>
     <col min="10" max="10" bestFit="1" width="11" customWidth="1" style="49"/>
-    <col min="11" max="11" bestFit="1" width="39.125" customWidth="1" style="37"/>
-    <col min="12" max="12" bestFit="1" width="17.875" customWidth="1" style="37"/>
+    <col min="11" max="11" width="26" customWidth="1" style="37"/>
+    <col min="12" max="12" width="21.75" customWidth="1" style="37"/>
     <col min="13" max="13" width="9" customWidth="1" style="49"/>
   </cols>
   <sheetData>
@@ -2440,27 +2422,27 @@
         <v>29</v>
       </c>
       <c r="J3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="M3" s="56" t="s">
         <v>31</v>
-      </c>
-      <c r="L3" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>36</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>16</v>
@@ -2472,36 +2454,36 @@
         <v>44495.444791666669</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4" s="56" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K4" s="57" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L4" s="57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M4" s="56" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>16</v>
@@ -2513,39 +2495,39 @@
         <v>44495.562280092592</v>
       </c>
       <c r="G5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="57" t="s">
-        <v>47</v>
-      </c>
       <c r="M5" s="56" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" s="55">
         <v>57.7</v>
@@ -2554,36 +2536,36 @@
         <v>44517.329583333332</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K6" s="57" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>16</v>
@@ -2595,36 +2577,36 @@
         <v>44525.528923611113</v>
       </c>
       <c r="G7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="L7" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="57" t="s">
-        <v>66</v>
-      </c>
       <c r="M7" s="56" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>16</v>
@@ -2636,36 +2618,36 @@
         <v>44544.481157407405</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H8" s="53" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K8" s="57" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L8" s="57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M8" s="56" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>16</v>
@@ -2677,36 +2659,36 @@
         <v>44566.391747685186</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I9" s="59" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K9" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="56" t="s">
         <v>31</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="56" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="29" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>16</v>
@@ -2718,36 +2700,36 @@
         <v>44566.391805555555</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I10" s="59" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K10" s="57" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L10" s="57" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>16</v>
@@ -2759,39 +2741,39 @@
         <v>44625.391805555555</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I11" s="59" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K11" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="56" t="s">
         <v>31</v>
-      </c>
-      <c r="L11" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="56" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId73"/>
-    <hyperlink ref="I3" r:id="rId74"/>
-    <hyperlink ref="I4" r:id="rId75"/>
-    <hyperlink ref="I5" r:id="rId76"/>
-    <hyperlink ref="I6" r:id="rId77"/>
-    <hyperlink ref="I7" r:id="rId78"/>
-    <hyperlink ref="I8" r:id="rId79"/>
-    <hyperlink ref="I9" r:id="rId80"/>
-    <hyperlink ref="I10" r:id="rId81"/>
-    <hyperlink ref="I11" r:id="rId82"/>
+    <hyperlink ref="I2" r:id="rId469"/>
+    <hyperlink ref="I3" r:id="rId470"/>
+    <hyperlink ref="I4" r:id="rId471"/>
+    <hyperlink ref="I5" r:id="rId472"/>
+    <hyperlink ref="I6" r:id="rId473"/>
+    <hyperlink ref="I7" r:id="rId474"/>
+    <hyperlink ref="I8" r:id="rId475"/>
+    <hyperlink ref="I9" r:id="rId476"/>
+    <hyperlink ref="I10" r:id="rId477"/>
+    <hyperlink ref="I11" r:id="rId478"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2819,28 +2801,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="44">
         <f>COUNTIFS(Tickets!J1:J990, "00")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="44">
         <f>COUNTIFS(Tickets!J1:J990, "01")</f>
@@ -2856,7 +2838,7 @@
       </c>
       <c r="E2" s="44">
         <f>COUNTIFS(Tickets!J1:K990, "98")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="44">
         <f>COUNTIFS(Tickets!J1:L990, "99")</f>
